--- a/LCD/tables/use_generation.xlsx
+++ b/LCD/tables/use_generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89716240-E694-475A-8AC4-47657D6CBDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971D9C1-4981-46CC-BE8A-AFA86DBA3003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="use" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
   <si>
     <t>ecoinvent</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,9 +1389,27 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
